--- a/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,77%</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>67,51; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>17,01; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>67,51; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>17,01; 100,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>66,96; 92,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>82,45; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>66,96; 92,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>82,45; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
     </row>
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
     </row>
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>84,26; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>89,22; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>84,26; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>89,22; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>65,92; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>65,92; 100,0</t>
         </is>
       </c>
     </row>
@@ -1197,32 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,51%</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1250,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>79,28; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>44,07; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>79,28; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>44,07; 100,0</t>
         </is>
       </c>
     </row>
@@ -1307,32 +1307,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,83%</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1360,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>84,18; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>83,79; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>84,18; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>83,79; 100,0</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1470,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>74,28; 93,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>86,83; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>89,51; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>74,28; 93,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>86,83; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>89,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -1527,32 +1527,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1580,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,22; 100,0</t>
+          <t>80,29; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,22; 100,0</t>
+          <t>80,29; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,51; 100,0</t>
+          <t>66,77; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 100,0</t>
+          <t>17,64; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,51; 100,0</t>
+          <t>66,77; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,14 +726,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 100,0</t>
+          <t>17,64; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 92,18</t>
+          <t>63,77; 91,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,45; 100,0</t>
+          <t>81,58; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 92,18</t>
+          <t>63,77; 91,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,45; 100,0</t>
+          <t>81,58; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,26; 100,0</t>
+          <t>82,5; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,29; 100,0</t>
+          <t>79,89; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,26; 100,0</t>
+          <t>82,5; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,29; 100,0</t>
+          <t>79,89; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1150,7 +1151,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,92; 100,0</t>
+          <t>72,36; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1165,14 +1166,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65,92; 100,0</t>
+          <t>72,36; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,28; 100,0</t>
+          <t>74,58; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,07; 100,0</t>
+          <t>43,2; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>79,28; 100,0</t>
+          <t>74,58; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,14 +1276,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,07; 100,0</t>
+          <t>43,2; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,18; 100,0</t>
+          <t>82,47; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,12 +1371,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,79; 100,0</t>
+          <t>84,54; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,18; 100,0</t>
+          <t>82,47; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>83,79; 100,0</t>
+          <t>84,54; 100,0</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1471,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,28; 93,64</t>
+          <t>72,69; 93,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,83; 100,0</t>
+          <t>86,62; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>89,51; 100,0</t>
+          <t>88,06; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>74,28; 93,64</t>
+          <t>72,69; 93,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>86,83; 100,0</t>
+          <t>86,62; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>89,51; 100,0</t>
+          <t>88,06; 100,0</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1581,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>91,84; 98,08</t>
+          <t>91,37; 98,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>91,84; 98,08</t>
+          <t>91,37; 98,14</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos anticonceptivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18726</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20011</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18726</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20011</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13937; 20872</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17903; 20011</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>927; 5253</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13937; 20872</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17903; 20011</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>927; 5253</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27157</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25664</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27593</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27157</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25664</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27593</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21111; 30189</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21745; 26656</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25779; 27593</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21111; 30189</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21745; 26656</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25779; 27593</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30541</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5546</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9268</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30541</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5546</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7531; 9268</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28600; 30541</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4081; 5546</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7531; 9268</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28600; 30541</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4081; 5546</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26737</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22275</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14675</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26737</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22275</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14675</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22861; 27710</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18515; 23174</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12939; 14675</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22861; 27710</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18515; 23174</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12939; 14675</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18296</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23351</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11504</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18296</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23351</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11504</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16369; 18296</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21573; 23351</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8922; 12331</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16369; 18296</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21573; 23351</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8922; 12331</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23779</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21418</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5598</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23779</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21418</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5598</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18495; 24800</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19567; 21418</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2796; 6471</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18495; 24800</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19567; 21418</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2796; 6471</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>31812</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>32027</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35332</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>31812</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>32027</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>35332</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27042; 32792</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30057; 32027</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31501; 37260</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27042; 32792</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30057; 32027</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31501; 37260</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>40939</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>45776</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>40216</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>40939</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>45776</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>40216</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>34840; 44919</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>41410; 47809</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>36280; 41197</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>34840; 44919</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>41410; 47809</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>36280; 41197</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>143972</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>143972</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>137347; 147528</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>137347; 147528</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>